--- a/Casos de uso y Tajadas/Casos de Prueba y Tajadas.xlsx
+++ b/Casos de uso y Tajadas/Casos de Prueba y Tajadas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_278A1246A218EE00F6F969BF9C7FB91B65EC2694" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DAFA518-759E-41BE-94DA-FCB4F23219F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243AEC5E-5538-4674-8C1F-5BBAA309972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -147,12 +147,106 @@
   <si>
     <t xml:space="preserve">Validacion Reporte centrales </t>
   </si>
+  <si>
+    <t>CP-CUS-002 Realizar solicitud pre oferta crédito dos solicitante</t>
+  </si>
+  <si>
+    <t>No existen clientes en RENEC</t>
+  </si>
+  <si>
+    <t>Validación Reporte centrales por cada uno de los solicitantes</t>
+  </si>
+  <si>
+    <t>Ingresos calculado por APL no cumple condiciones para Solicitud Crédito para alguno de los solicitantes</t>
+  </si>
+  <si>
+    <t>CP-CUS-002-1</t>
+  </si>
+  <si>
+    <t>Clientes cumplen condiciones para otorgar crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecutar prueba con dos clientes que cumpla las siguientes condiciones:
+- Se encuentran registrados en RENEC
+-Tienen información Vigente en APL y con ingresos mayor a 0
+- Tienen información vigente en centrales y es viable
+</t>
+  </si>
+  <si>
+    <t>CP-CUS-002-2</t>
+  </si>
+  <si>
+    <t>Clientes NO registrados en RENEC</t>
+  </si>
+  <si>
+    <t>Ejecutar prueba con dos clientes que cumplan las siguientes condiciones:
+No se encuentran registrados en RENEC
+Tienen información Vigente en APL y con ingresos mayor a 0
+Tienen información vigente en centrales y son viables</t>
+  </si>
+  <si>
+    <t>CP-CUS-002-3</t>
+  </si>
+  <si>
+    <t>Clientes NO son viable en centrales de riesgo</t>
+  </si>
+  <si>
+    <t>Ejecutar prueba con dos clientes que cumpla las siguientes condiciones:
+Se encuentran registrados en RENEC
+Tienen información Vigente en APL y con ingresos mayor a 0
+Tienen información vigente en centrales y NO son viables</t>
+  </si>
+  <si>
+    <t>CP-CUS-002-4</t>
+  </si>
+  <si>
+    <t>Clientes con ingresos inferidos igual a cero</t>
+  </si>
+  <si>
+    <t>Ejecutar prueba con dos clientes que cumpla las siguientes condiciones:
+Se encuentran registrados en RENEC
+Tiene información Vigente en APL y con ingresos iguales a 0
+Tiene información vigente en centrales y son viables</t>
+  </si>
+  <si>
+    <t>CP-CUS-002-5</t>
+  </si>
+  <si>
+    <t>Ejecutar prueba con dos clientes que cumpla las siguientes condiciones:
+Se encuentran registrados en RENEC
+No tienen información vigente en APL
+Tienen información vigente en centrales y son viable</t>
+  </si>
+  <si>
+    <t>CP-CUS-002-6</t>
+  </si>
+  <si>
+    <t>Clientes SIN información en centrales</t>
+  </si>
+  <si>
+    <t>Realizar prueba con dos clientes que cumpla las siguientes condiciones:
+Se encuentran registrados en RENEC
+Tienes información Vigente en APL y con ingresos mayor a 0
+NO tienen información vigente en centrales</t>
+  </si>
+  <si>
+    <t>CP-CUS-002-7</t>
+  </si>
+  <si>
+    <t>Cuota crédito calculado mayor al INDA(Ingreso Neto Disponible) por cada uno de los solicitantes</t>
+  </si>
+  <si>
+    <t>Realizar prueba con dos clientes que cumpla las siguientes condiciones:
+Se encuentran registrados en RENEC
+Tienen información Vigente en APL y con ingresos mayor a 0
+Tienen información vigente en centrales y son viables</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +267,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -216,13 +316,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +648,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,15 +690,28 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -609,10 +725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,17 +851,103 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="9" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -755,6 +957,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a8cebe-36ac-495c-bd9f-20670cd544f7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72dbc5bc-76fb-4acc-b863-4b866e8160ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056CCDBAA7EA6584DAD3A9768FBFC5F6A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68165e6cb32125f27c867200bc89949d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49a8cebe-36ac-495c-bd9f-20670cd544f7" xmlns:ns3="72dbc5bc-76fb-4acc-b863-4b866e8160ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f9a1f560788655e9d36b084fca882d9" ns2:_="" ns3:_="">
     <xsd:import namespace="49a8cebe-36ac-495c-bd9f-20670cd544f7"/>
@@ -973,17 +1186,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a8cebe-36ac-495c-bd9f-20670cd544f7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72dbc5bc-76fb-4acc-b863-4b866e8160ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -994,6 +1196,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C91EC4F-5A61-4CF1-9BD9-28403C3E5321}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="72dbc5bc-76fb-4acc-b863-4b866e8160ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49a8cebe-36ac-495c-bd9f-20670cd544f7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B638A3E-8266-40D5-9698-94DFA3890B3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1012,23 +1231,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C91EC4F-5A61-4CF1-9BD9-28403C3E5321}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="72dbc5bc-76fb-4acc-b863-4b866e8160ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49a8cebe-36ac-495c-bd9f-20670cd544f7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7B7D82B-D85E-4812-8386-369AA532F42B}">
   <ds:schemaRefs>

--- a/Casos de uso y Tajadas/Casos de Prueba y Tajadas.xlsx
+++ b/Casos de uso y Tajadas/Casos de Prueba y Tajadas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243AEC5E-5538-4674-8C1F-5BBAA309972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5C851-C508-46FA-AC9B-5FD45E629095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU y Tajadas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -146,100 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">Validacion Reporte centrales </t>
-  </si>
-  <si>
-    <t>CP-CUS-002 Realizar solicitud pre oferta crédito dos solicitante</t>
-  </si>
-  <si>
-    <t>No existen clientes en RENEC</t>
-  </si>
-  <si>
-    <t>Validación Reporte centrales por cada uno de los solicitantes</t>
-  </si>
-  <si>
-    <t>Ingresos calculado por APL no cumple condiciones para Solicitud Crédito para alguno de los solicitantes</t>
-  </si>
-  <si>
-    <t>CP-CUS-002-1</t>
-  </si>
-  <si>
-    <t>Clientes cumplen condiciones para otorgar crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejecutar prueba con dos clientes que cumpla las siguientes condiciones:
-- Se encuentran registrados en RENEC
--Tienen información Vigente en APL y con ingresos mayor a 0
-- Tienen información vigente en centrales y es viable
-</t>
-  </si>
-  <si>
-    <t>CP-CUS-002-2</t>
-  </si>
-  <si>
-    <t>Clientes NO registrados en RENEC</t>
-  </si>
-  <si>
-    <t>Ejecutar prueba con dos clientes que cumplan las siguientes condiciones:
-No se encuentran registrados en RENEC
-Tienen información Vigente en APL y con ingresos mayor a 0
-Tienen información vigente en centrales y son viables</t>
-  </si>
-  <si>
-    <t>CP-CUS-002-3</t>
-  </si>
-  <si>
-    <t>Clientes NO son viable en centrales de riesgo</t>
-  </si>
-  <si>
-    <t>Ejecutar prueba con dos clientes que cumpla las siguientes condiciones:
-Se encuentran registrados en RENEC
-Tienen información Vigente en APL y con ingresos mayor a 0
-Tienen información vigente en centrales y NO son viables</t>
-  </si>
-  <si>
-    <t>CP-CUS-002-4</t>
-  </si>
-  <si>
-    <t>Clientes con ingresos inferidos igual a cero</t>
-  </si>
-  <si>
-    <t>Ejecutar prueba con dos clientes que cumpla las siguientes condiciones:
-Se encuentran registrados en RENEC
-Tiene información Vigente en APL y con ingresos iguales a 0
-Tiene información vigente en centrales y son viables</t>
-  </si>
-  <si>
-    <t>CP-CUS-002-5</t>
-  </si>
-  <si>
-    <t>Ejecutar prueba con dos clientes que cumpla las siguientes condiciones:
-Se encuentran registrados en RENEC
-No tienen información vigente en APL
-Tienen información vigente en centrales y son viable</t>
-  </si>
-  <si>
-    <t>CP-CUS-002-6</t>
-  </si>
-  <si>
-    <t>Clientes SIN información en centrales</t>
-  </si>
-  <si>
-    <t>Realizar prueba con dos clientes que cumpla las siguientes condiciones:
-Se encuentran registrados en RENEC
-Tienes información Vigente en APL y con ingresos mayor a 0
-NO tienen información vigente en centrales</t>
-  </si>
-  <si>
-    <t>CP-CUS-002-7</t>
-  </si>
-  <si>
-    <t>Cuota crédito calculado mayor al INDA(Ingreso Neto Disponible) por cada uno de los solicitantes</t>
-  </si>
-  <si>
-    <t>Realizar prueba con dos clientes que cumpla las siguientes condiciones:
-Se encuentran registrados en RENEC
-Tienen información Vigente en APL y con ingresos mayor a 0
-Tienen información vigente en centrales y son viables</t>
   </si>
 </sst>
 </file>
@@ -647,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,28 +596,16 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -727,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,103 +745,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>54</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -957,6 +795,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a8cebe-36ac-495c-bd9f-20670cd544f7">
@@ -967,7 +814,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056CCDBAA7EA6584DAD3A9768FBFC5F6A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68165e6cb32125f27c867200bc89949d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49a8cebe-36ac-495c-bd9f-20670cd544f7" xmlns:ns3="72dbc5bc-76fb-4acc-b863-4b866e8160ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f9a1f560788655e9d36b084fca882d9" ns2:_="" ns3:_="">
     <xsd:import namespace="49a8cebe-36ac-495c-bd9f-20670cd544f7"/>
@@ -1186,16 +1033,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7B7D82B-D85E-4812-8386-369AA532F42B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C91EC4F-5A61-4CF1-9BD9-28403C3E5321}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1212,7 +1058,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B638A3E-8266-40D5-9698-94DFA3890B3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1229,12 +1075,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7B7D82B-D85E-4812-8386-369AA532F42B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>